--- a/codigos_que_nao_cabem_robo.xlsx
+++ b/codigos_que_nao_cabem_robo.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maxifarmabr-my.sharepoint.com/personal/controle_estoque_grupomaxifarma_com_br/Documents/Documentos/estoque.renan/projetos/Projeto_Curva_ABC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_A8006F80DCF6846AE8352E6CF3AA52C8AFD28BC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BA0FCE6-7C59-47BB-85E3-DAD0219FD133}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -22,21 +28,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,14 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -66,26 +58,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -96,10 +82,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -137,71 +123,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -229,7 +215,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -252,11 +238,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -265,13 +251,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -281,7 +267,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -290,7 +276,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -299,7 +285,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -307,10 +293,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -375,44 +361,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A135"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2"/>
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>64359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>64460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>64574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>63924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>76322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>63902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>63926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>64404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>63566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>76784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>63936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>63925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>64877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>19153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>134107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>400008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>64456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>64360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>64875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>64403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>63659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>365684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>52010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>60769</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>63758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>71069</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>60771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>62657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>64406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>64506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>60750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>64575</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>64879</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>64357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>64351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>64361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>62656</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>64358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>63665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>64881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>64362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>60023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>64352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>64461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>862975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>64458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>402185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>63930</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5520049</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>63929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>63923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>63937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>60733</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>138766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>61723</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>64005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>61832</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>690340</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>60098</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>64897</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>64381</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>61905</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>64870</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>64599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>62254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>12903</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>500060</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>410201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>135501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>64002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>63922</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>60731</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>64399</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>64598</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>501501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>64241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>64297</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>64444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>63919</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>76563</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>63979</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>60735</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>64464</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>869647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>60734</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
